--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cxcl12-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cxcl12-Itgb1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>109.026058</v>
+        <v>160.9723563333334</v>
       </c>
       <c r="H2">
-        <v>327.078174</v>
+        <v>482.917069</v>
       </c>
       <c r="I2">
-        <v>0.3049840938689738</v>
+        <v>0.3931645655589854</v>
       </c>
       <c r="J2">
-        <v>0.3049840938689738</v>
+        <v>0.3931645655589854</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N2">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q2">
-        <v>12760.90731422265</v>
+        <v>12409.28221958015</v>
       </c>
       <c r="R2">
-        <v>114848.1658280039</v>
+        <v>111683.5399762213</v>
       </c>
       <c r="S2">
-        <v>0.09897849006442994</v>
+        <v>0.09450955382092521</v>
       </c>
       <c r="T2">
-        <v>0.09897849006442994</v>
+        <v>0.09450955382092521</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>109.026058</v>
+        <v>160.9723563333334</v>
       </c>
       <c r="H3">
-        <v>327.078174</v>
+        <v>482.917069</v>
       </c>
       <c r="I3">
-        <v>0.3049840938689738</v>
+        <v>0.3931645655589854</v>
       </c>
       <c r="J3">
-        <v>0.3049840938689738</v>
+        <v>0.3931645655589854</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q3">
-        <v>11074.87104194616</v>
+        <v>16351.57796597464</v>
       </c>
       <c r="R3">
-        <v>99673.83937751548</v>
+        <v>147164.2016937717</v>
       </c>
       <c r="S3">
-        <v>0.0859009462570402</v>
+        <v>0.1245342245012315</v>
       </c>
       <c r="T3">
-        <v>0.08590094625704019</v>
+        <v>0.1245342245012315</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>109.026058</v>
+        <v>160.9723563333334</v>
       </c>
       <c r="H4">
-        <v>327.078174</v>
+        <v>482.917069</v>
       </c>
       <c r="I4">
-        <v>0.3049840938689738</v>
+        <v>0.3931645655589854</v>
       </c>
       <c r="J4">
-        <v>0.3049840938689738</v>
+        <v>0.3931645655589854</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q4">
-        <v>15484.62097140978</v>
+        <v>22862.3869414446</v>
       </c>
       <c r="R4">
-        <v>139361.588742688</v>
+        <v>205761.4824730014</v>
       </c>
       <c r="S4">
-        <v>0.1201046575475037</v>
+        <v>0.1741207872368287</v>
       </c>
       <c r="T4">
-        <v>0.1201046575475037</v>
+        <v>0.1741207872368287</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>269.931655</v>
       </c>
       <c r="I5">
-        <v>0.2516978134001918</v>
+        <v>0.2197635343237224</v>
       </c>
       <c r="J5">
-        <v>0.2516978134001917</v>
+        <v>0.2197635343237224</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N5">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q5">
-        <v>10531.34419978059</v>
+        <v>6936.300872175927</v>
       </c>
       <c r="R5">
-        <v>94782.09779802529</v>
+        <v>62426.70784958335</v>
       </c>
       <c r="S5">
-        <v>0.0816851436638283</v>
+        <v>0.0528271248084501</v>
       </c>
       <c r="T5">
-        <v>0.08168514366382829</v>
+        <v>0.05282712480845011</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>269.931655</v>
       </c>
       <c r="I6">
-        <v>0.2516978134001918</v>
+        <v>0.2197635343237224</v>
       </c>
       <c r="J6">
-        <v>0.2516978134001917</v>
+        <v>0.2197635343237224</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q6">
         <v>9139.889197449484</v>
@@ -818,10 +818,10 @@
         <v>82259.00277704536</v>
       </c>
       <c r="S6">
-        <v>0.07089248513790748</v>
+        <v>0.0696097352561356</v>
       </c>
       <c r="T6">
-        <v>0.07089248513790745</v>
+        <v>0.06960973525613559</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>269.931655</v>
       </c>
       <c r="I7">
-        <v>0.2516978134001918</v>
+        <v>0.2197635343237224</v>
       </c>
       <c r="J7">
-        <v>0.2516978134001917</v>
+        <v>0.2197635343237224</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q7">
         <v>12779.17543302767</v>
@@ -880,10 +880,10 @@
         <v>115012.578897249</v>
       </c>
       <c r="S7">
-        <v>0.09912018459845598</v>
+        <v>0.09732667425913667</v>
       </c>
       <c r="T7">
-        <v>0.09912018459845595</v>
+        <v>0.09732667425913669</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>475.433556</v>
       </c>
       <c r="I8">
-        <v>0.4433180927308344</v>
+        <v>0.3870719001172923</v>
       </c>
       <c r="J8">
-        <v>0.4433180927308344</v>
+        <v>0.3870719001172923</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N8">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q8">
-        <v>18548.97093251867</v>
+        <v>12216.98206957055</v>
       </c>
       <c r="R8">
-        <v>166940.7383926681</v>
+        <v>109952.8386261349</v>
       </c>
       <c r="S8">
-        <v>0.1438729308145232</v>
+        <v>0.09304498874330709</v>
       </c>
       <c r="T8">
-        <v>0.1438729308145232</v>
+        <v>0.09304498874330711</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>475.433556</v>
       </c>
       <c r="I9">
-        <v>0.4433180927308344</v>
+        <v>0.3870719001172923</v>
       </c>
       <c r="J9">
-        <v>0.4433180927308344</v>
+        <v>0.3870719001172923</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q9">
-        <v>16098.18612266647</v>
+        <v>16098.18612266648</v>
       </c>
       <c r="R9">
-        <v>144883.6751039982</v>
+        <v>144883.6751039983</v>
       </c>
       <c r="S9">
-        <v>0.1248637041209283</v>
+        <v>0.1226043828206926</v>
       </c>
       <c r="T9">
-        <v>0.1248637041209283</v>
+        <v>0.1226043828206926</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>475.433556</v>
       </c>
       <c r="I10">
-        <v>0.4433180927308344</v>
+        <v>0.3870719001172923</v>
       </c>
       <c r="J10">
-        <v>0.4433180927308344</v>
+        <v>0.3870719001172923</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q10">
         <v>22508.10050000318</v>
@@ -1066,10 +1066,10 @@
         <v>202572.9045000286</v>
       </c>
       <c r="S10">
-        <v>0.1745814577953829</v>
+        <v>0.1714225285532926</v>
       </c>
       <c r="T10">
-        <v>0.1745814577953829</v>
+        <v>0.1714225285532926</v>
       </c>
     </row>
   </sheetData>
